--- a/Code/Results/Cases/Case_1_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_127/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81335779497474</v>
+        <v>17.49117535635123</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.81586596884239</v>
+        <v>10.10690019881205</v>
       </c>
       <c r="E2">
-        <v>10.7633706644941</v>
+        <v>13.61178519483119</v>
       </c>
       <c r="F2">
-        <v>64.39092007164142</v>
+        <v>52.59671278604533</v>
       </c>
       <c r="G2">
-        <v>2.115437765723925</v>
+        <v>3.728657829120948</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.16982416789641</v>
+        <v>11.80445246554553</v>
       </c>
       <c r="L2">
-        <v>6.681634518092781</v>
+        <v>9.619084943955858</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.22399402294634</v>
+        <v>17.43832787413744</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.39530556209289</v>
+        <v>9.964007593499755</v>
       </c>
       <c r="E3">
-        <v>10.56858878538086</v>
+        <v>13.5572864922265</v>
       </c>
       <c r="F3">
-        <v>60.87084017014487</v>
+        <v>51.39187863642607</v>
       </c>
       <c r="G3">
-        <v>2.127958493906246</v>
+        <v>3.732758932429832</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.21747363271068</v>
+        <v>11.75518689163667</v>
       </c>
       <c r="L3">
-        <v>6.445739902380559</v>
+        <v>9.62190991643773</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.86173668788787</v>
+        <v>17.41053870755996</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.13260154255898</v>
+        <v>9.87452319141482</v>
       </c>
       <c r="E4">
-        <v>10.44932865892756</v>
+        <v>13.52288642561479</v>
       </c>
       <c r="F4">
-        <v>58.64882860740334</v>
+        <v>50.64115787048534</v>
       </c>
       <c r="G4">
-        <v>2.135782305835885</v>
+        <v>3.735403407206262</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.60784792433818</v>
+        <v>11.73182095276525</v>
       </c>
       <c r="L4">
-        <v>6.304272501829213</v>
+        <v>9.62635256973878</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.71418560911538</v>
+        <v>17.40039431402744</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.02443541651159</v>
+        <v>9.837636159600482</v>
       </c>
       <c r="E5">
-        <v>10.4007439874565</v>
+        <v>13.50863149308258</v>
       </c>
       <c r="F5">
-        <v>57.72842891093372</v>
+        <v>50.33281286931101</v>
       </c>
       <c r="G5">
-        <v>2.139008672327578</v>
+        <v>3.736512965059339</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.35297248381176</v>
+        <v>11.72403757076639</v>
       </c>
       <c r="L5">
-        <v>6.247515027659803</v>
+        <v>9.62884328105353</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.68969466643529</v>
+        <v>17.39878132398184</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.00640803592194</v>
+        <v>9.831486178619697</v>
       </c>
       <c r="E6">
-        <v>10.39267553933729</v>
+        <v>13.50625015573252</v>
       </c>
       <c r="F6">
-        <v>57.57471025954983</v>
+        <v>50.2814762329448</v>
       </c>
       <c r="G6">
-        <v>2.139546816350566</v>
+        <v>3.73669913766919</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.31025587628334</v>
+        <v>11.72285029025888</v>
       </c>
       <c r="L6">
-        <v>6.238145732071955</v>
+        <v>9.629297921893322</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.85974622857607</v>
+        <v>17.41039710942732</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.13114725007481</v>
+        <v>9.874027402060419</v>
       </c>
       <c r="E7">
-        <v>10.44867345578288</v>
+        <v>13.52269513771313</v>
       </c>
       <c r="F7">
-        <v>58.63647556339187</v>
+        <v>50.63700877177932</v>
       </c>
       <c r="G7">
-        <v>2.135825658585705</v>
+        <v>3.735418241703536</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.6044369344406</v>
+        <v>11.73170893745495</v>
       </c>
       <c r="L7">
-        <v>6.30350337844371</v>
+        <v>9.626383407095471</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.61031729643492</v>
+        <v>17.47199186102468</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.67178976652418</v>
+        <v>10.058004302577</v>
       </c>
       <c r="E8">
-        <v>10.69609528590571</v>
+        <v>13.59318813438514</v>
       </c>
       <c r="F8">
-        <v>63.18993633286646</v>
+        <v>52.1837533594526</v>
       </c>
       <c r="G8">
-        <v>2.11972913805757</v>
+        <v>3.730045739767564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.84649598885183</v>
+        <v>11.78604274918342</v>
       </c>
       <c r="L8">
-        <v>6.59962187391772</v>
+        <v>9.619496636207574</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.07335823216552</v>
+        <v>17.62932375518433</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>11.69673824280794</v>
+        <v>10.40414489179929</v>
       </c>
       <c r="E9">
-        <v>11.18761419168409</v>
+        <v>13.72402619775453</v>
       </c>
       <c r="F9">
-        <v>71.63273858914117</v>
+        <v>55.116199173488</v>
       </c>
       <c r="G9">
-        <v>2.089046178808054</v>
+        <v>3.720506956406427</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.0944642504669</v>
+        <v>11.94669030706364</v>
       </c>
       <c r="L9">
-        <v>7.497964983267187</v>
+        <v>9.627492732499194</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.13779239891389</v>
+        <v>17.76653685082715</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.43014597339329</v>
+        <v>10.64853931559253</v>
       </c>
       <c r="E10">
-        <v>11.55861721532003</v>
+        <v>13.81570428845927</v>
       </c>
       <c r="F10">
-        <v>77.54654597126397</v>
+        <v>57.19190766522922</v>
       </c>
       <c r="G10">
-        <v>2.066727584051777</v>
+        <v>3.71409786129467</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.64696065948924</v>
+        <v>12.09674868346444</v>
       </c>
       <c r="L10">
-        <v>8.220957492789596</v>
+        <v>9.646468410151936</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.61949546067063</v>
+        <v>17.83348677055669</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.76039478120421</v>
+        <v>10.75736838639029</v>
       </c>
       <c r="E11">
-        <v>11.73121375327009</v>
+        <v>13.85645835809923</v>
       </c>
       <c r="F11">
-        <v>80.17981209709147</v>
+        <v>58.1157840179516</v>
       </c>
       <c r="G11">
-        <v>2.056539750564593</v>
+        <v>3.711310441889169</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.33575572070473</v>
+        <v>12.171695180417</v>
       </c>
       <c r="L11">
-        <v>8.539598370052461</v>
+        <v>9.657935217303198</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.80157754969051</v>
+        <v>17.85947457260501</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.88507104907547</v>
+        <v>10.79822553236517</v>
       </c>
       <c r="E12">
-        <v>11.79729304151612</v>
+        <v>13.87175506305641</v>
       </c>
       <c r="F12">
-        <v>81.16952032979889</v>
+        <v>58.46245042259623</v>
       </c>
       <c r="G12">
-        <v>2.052668609073147</v>
+        <v>3.710273198958681</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.59447387108382</v>
+        <v>12.20100917687368</v>
       </c>
       <c r="L12">
-        <v>8.658924316849639</v>
+        <v>9.66268336148914</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76237648139713</v>
+        <v>17.85384964853293</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.85823476400487</v>
+        <v>10.78944221803267</v>
       </c>
       <c r="E13">
-        <v>11.78302656550319</v>
+        <v>13.8684666798444</v>
       </c>
       <c r="F13">
-        <v>80.95668612977524</v>
+        <v>58.38793515524439</v>
       </c>
       <c r="G13">
-        <v>2.053503061821169</v>
+        <v>3.710495776291354</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.53884133642236</v>
+        <v>12.19465484181467</v>
       </c>
       <c r="L13">
-        <v>8.63328235190634</v>
+        <v>9.661642742625833</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63448168587807</v>
+        <v>17.83561216679431</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.77065891437123</v>
+        <v>10.76073691659699</v>
       </c>
       <c r="E14">
-        <v>11.73663459947308</v>
+        <v>13.85771954816558</v>
       </c>
       <c r="F14">
-        <v>80.26138028298877</v>
+        <v>58.14436971115737</v>
       </c>
       <c r="G14">
-        <v>2.056221586231703</v>
+        <v>3.711224741426748</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.35708049601378</v>
+        <v>12.17408832292983</v>
       </c>
       <c r="L14">
-        <v>8.54944130584685</v>
+        <v>9.658317726284549</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.55610145691185</v>
+        <v>17.82452341950395</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.71697009022986</v>
+        <v>10.74310750216253</v>
       </c>
       <c r="E15">
-        <v>11.70831764986464</v>
+        <v>13.85111893342559</v>
       </c>
       <c r="F15">
-        <v>79.83454074110358</v>
+        <v>57.99475673139505</v>
       </c>
       <c r="G15">
-        <v>2.057884772350339</v>
+        <v>3.711673631969351</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.24548424684552</v>
+        <v>12.1616114192887</v>
       </c>
       <c r="L15">
-        <v>8.497916654310053</v>
+        <v>9.656333861156702</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10626314376042</v>
+        <v>17.76225132938685</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.40850362602724</v>
+        <v>10.64137841935413</v>
       </c>
       <c r="E16">
-        <v>11.54742848363337</v>
+        <v>13.8130218459925</v>
       </c>
       <c r="F16">
-        <v>77.37336753379088</v>
+        <v>57.13109789555632</v>
       </c>
       <c r="G16">
-        <v>2.067392006920454</v>
+        <v>3.714282592513389</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.60162766030473</v>
+        <v>12.09198294369604</v>
       </c>
       <c r="L16">
-        <v>8.199938570683514</v>
+        <v>9.645775932479788</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82966691392506</v>
+        <v>17.72519872538503</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>12.2184681590616</v>
+        <v>10.57835777239147</v>
       </c>
       <c r="E17">
-        <v>11.44981984221976</v>
+        <v>13.78940753468287</v>
       </c>
       <c r="F17">
-        <v>75.84938250746107</v>
+        <v>56.59586486011492</v>
       </c>
       <c r="G17">
-        <v>2.073209983498812</v>
+        <v>3.71591582497939</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.20243728494063</v>
+        <v>12.05096122222448</v>
       </c>
       <c r="L17">
-        <v>8.01460449996401</v>
+        <v>9.640023941524413</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.67033473122346</v>
+        <v>17.70431457155871</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12.1088384642316</v>
+        <v>10.54188998321849</v>
       </c>
       <c r="E18">
-        <v>11.39402611719286</v>
+        <v>13.77573567405141</v>
       </c>
       <c r="F18">
-        <v>74.96740809765183</v>
+        <v>56.2861093677222</v>
       </c>
       <c r="G18">
-        <v>2.076553595619159</v>
+        <v>3.716867283176587</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.97116482689249</v>
+        <v>12.02799761080893</v>
       </c>
       <c r="L18">
-        <v>7.907030887047515</v>
+        <v>9.636982492956518</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.61634589797886</v>
+        <v>17.69731745965104</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>12.07166099194554</v>
+        <v>10.52950534970461</v>
       </c>
       <c r="E19">
-        <v>11.37519041842807</v>
+        <v>13.77109121692666</v>
       </c>
       <c r="F19">
-        <v>74.66783735152453</v>
+        <v>56.18091264217935</v>
       </c>
       <c r="G19">
-        <v>2.07768544506267</v>
+        <v>3.717191506889332</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.89256227410835</v>
+        <v>12.02033170227461</v>
       </c>
       <c r="L19">
-        <v>7.870437098276486</v>
+        <v>9.635998603326312</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85913594387926</v>
+        <v>17.72909890526634</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>12.23873087131528</v>
+        <v>10.58508931687792</v>
       </c>
       <c r="E20">
-        <v>11.46017327575402</v>
+        <v>13.79193057940802</v>
       </c>
       <c r="F20">
-        <v>76.01216950572322</v>
+        <v>56.65304026029528</v>
       </c>
       <c r="G20">
-        <v>2.072590988266352</v>
+        <v>3.715740716742397</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.24510181833181</v>
+        <v>12.05526294125705</v>
       </c>
       <c r="L20">
-        <v>8.034433538483528</v>
+        <v>9.640608633990057</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.67205589951961</v>
+        <v>17.84095184966656</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.79639143764544</v>
+        <v>10.76917809701033</v>
       </c>
       <c r="E21">
-        <v>11.75023996418317</v>
+        <v>13.86087992575255</v>
       </c>
       <c r="F21">
-        <v>80.46580367304436</v>
+        <v>58.21599918361758</v>
       </c>
       <c r="G21">
-        <v>2.055423520662161</v>
+        <v>3.711010131282395</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.4105219687866</v>
+        <v>12.18010411115319</v>
       </c>
       <c r="L21">
-        <v>8.574102518967468</v>
+        <v>9.659283363688928</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.20148230623757</v>
+        <v>17.9177490598935</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.1587013582511</v>
+        <v>10.88741983380607</v>
       </c>
       <c r="E22">
-        <v>11.94412008150933</v>
+        <v>13.90515007390252</v>
       </c>
       <c r="F22">
-        <v>83.3335889144313</v>
+        <v>59.21881040704257</v>
       </c>
       <c r="G22">
-        <v>2.044121663891362</v>
+        <v>3.708024981639128</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.16010228424118</v>
+        <v>12.26712078446017</v>
       </c>
       <c r="L22">
-        <v>8.919097866605565</v>
+        <v>9.67385323955487</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91906441519654</v>
+        <v>17.87642850772387</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.96548386420858</v>
+        <v>10.8245067693667</v>
       </c>
       <c r="E23">
-        <v>11.8401835786077</v>
+        <v>13.88159450876964</v>
       </c>
       <c r="F23">
-        <v>81.80661879013861</v>
+        <v>58.68537929737536</v>
       </c>
       <c r="G23">
-        <v>2.050164240391994</v>
+        <v>3.709608504641921</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.76099603936431</v>
+        <v>12.22019175540706</v>
       </c>
       <c r="L23">
-        <v>8.735621430479759</v>
+        <v>9.665861319436129</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84581397323198</v>
+        <v>17.72733433111584</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>12.2295712769946</v>
+        <v>10.58204672062354</v>
       </c>
       <c r="E24">
-        <v>11.45549149544027</v>
+        <v>13.79079020896058</v>
       </c>
       <c r="F24">
-        <v>75.93859166920109</v>
+        <v>56.62719760540767</v>
       </c>
       <c r="G24">
-        <v>2.07287083921149</v>
+        <v>3.715819844259745</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.22581873294652</v>
+        <v>12.05331619984001</v>
       </c>
       <c r="L24">
-        <v>8.025472025397997</v>
+        <v>9.640343467592002</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.67917643143367</v>
+        <v>17.58291160200008</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>11.42311960921525</v>
+        <v>10.31217608426111</v>
       </c>
       <c r="E25">
-        <v>11.05340375153698</v>
+        <v>13.68941667310752</v>
       </c>
       <c r="F25">
-        <v>69.40076491765255</v>
+        <v>54.33553788071104</v>
       </c>
       <c r="G25">
-        <v>2.097282198753031</v>
+        <v>3.722981633796741</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.50495656749498</v>
+        <v>11.89752344161442</v>
       </c>
       <c r="L25">
-        <v>7.221816487005851</v>
+        <v>9.623026685037257</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_127/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_127/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.49117535635123</v>
+        <v>13.8133577949747</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.10690019881205</v>
+        <v>10.81586596884237</v>
       </c>
       <c r="E2">
-        <v>13.61178519483119</v>
+        <v>10.76337066449393</v>
       </c>
       <c r="F2">
-        <v>52.59671278604533</v>
+        <v>64.39092007164149</v>
       </c>
       <c r="G2">
-        <v>3.728657829120948</v>
+        <v>2.115437765724191</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.80445246554553</v>
+        <v>13.16982416789643</v>
       </c>
       <c r="L2">
-        <v>9.619084943955858</v>
+        <v>6.681634518092736</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.43832787413744</v>
+        <v>13.22399402294636</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.964007593499755</v>
+        <v>10.39530556209297</v>
       </c>
       <c r="E3">
-        <v>13.5572864922265</v>
+        <v>10.56858878538104</v>
       </c>
       <c r="F3">
-        <v>51.39187863642607</v>
+        <v>60.87084017014484</v>
       </c>
       <c r="G3">
-        <v>3.732758932429832</v>
+        <v>2.127958493906378</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.75518689163667</v>
+        <v>12.21747363271068</v>
       </c>
       <c r="L3">
-        <v>9.62190991643773</v>
+        <v>6.445739902380593</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.41053870755996</v>
+        <v>12.86173668788786</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.87452319141482</v>
+        <v>10.13260154255895</v>
       </c>
       <c r="E4">
-        <v>13.52288642561479</v>
+        <v>10.44932865892755</v>
       </c>
       <c r="F4">
-        <v>50.64115787048534</v>
+        <v>58.64882860740332</v>
       </c>
       <c r="G4">
-        <v>3.735403407206262</v>
+        <v>2.135782305835879</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.73182095276525</v>
+        <v>11.60784792433819</v>
       </c>
       <c r="L4">
-        <v>9.62635256973878</v>
+        <v>6.304272501829256</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.40039431402744</v>
+        <v>12.71418560911539</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.837636159600482</v>
+        <v>10.02443541651159</v>
       </c>
       <c r="E5">
-        <v>13.50863149308258</v>
+        <v>10.40074398745645</v>
       </c>
       <c r="F5">
-        <v>50.33281286931101</v>
+        <v>57.72842891093377</v>
       </c>
       <c r="G5">
-        <v>3.736512965059339</v>
+        <v>2.139008672327188</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.72403757076639</v>
+        <v>11.35297248381173</v>
       </c>
       <c r="L5">
-        <v>9.62884328105353</v>
+        <v>6.247515027659759</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.39878132398184</v>
+        <v>12.68969466643536</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.831486178619697</v>
+        <v>10.00640803592209</v>
       </c>
       <c r="E6">
-        <v>13.50625015573252</v>
+        <v>10.39267553933737</v>
       </c>
       <c r="F6">
-        <v>50.2814762329448</v>
+        <v>57.57471025954973</v>
       </c>
       <c r="G6">
-        <v>3.73669913766919</v>
+        <v>2.139546816350569</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.72285029025888</v>
+        <v>11.31025587628334</v>
       </c>
       <c r="L6">
-        <v>9.629297921893322</v>
+        <v>6.238145732071994</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.41039710942732</v>
+        <v>12.85974622857605</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.874027402060419</v>
+        <v>10.1311472500749</v>
       </c>
       <c r="E7">
-        <v>13.52269513771313</v>
+        <v>10.44867345578284</v>
       </c>
       <c r="F7">
-        <v>50.63700877177932</v>
+        <v>58.63647556339195</v>
       </c>
       <c r="G7">
-        <v>3.735418241703536</v>
+        <v>2.135825658585965</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.73170893745495</v>
+        <v>11.60443693444068</v>
       </c>
       <c r="L7">
-        <v>9.626383407095471</v>
+        <v>6.303503378443696</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.47199186102468</v>
+        <v>13.61031729643487</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.058004302577</v>
+        <v>10.67178976652406</v>
       </c>
       <c r="E8">
-        <v>13.59318813438514</v>
+        <v>10.69609528590566</v>
       </c>
       <c r="F8">
-        <v>52.1837533594526</v>
+        <v>63.18993633286656</v>
       </c>
       <c r="G8">
-        <v>3.730045739767564</v>
+        <v>2.119729138057705</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.78604274918342</v>
+        <v>12.84649598885184</v>
       </c>
       <c r="L8">
-        <v>9.619496636207574</v>
+        <v>6.599621873917726</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.62932375518433</v>
+        <v>15.07335823216555</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.40414489179929</v>
+        <v>11.69673824280798</v>
       </c>
       <c r="E9">
-        <v>13.72402619775453</v>
+        <v>11.18761419168381</v>
       </c>
       <c r="F9">
-        <v>55.116199173488</v>
+        <v>71.63273858914091</v>
       </c>
       <c r="G9">
-        <v>3.720506956406427</v>
+        <v>2.089046178807915</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.94669030706364</v>
+        <v>15.09446425046678</v>
       </c>
       <c r="L9">
-        <v>9.627492732499194</v>
+        <v>7.4979649832672</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.76653685082715</v>
+        <v>16.13779239891385</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.64853931559253</v>
+        <v>12.43014597339333</v>
       </c>
       <c r="E10">
-        <v>13.81570428845927</v>
+        <v>11.55861721531998</v>
       </c>
       <c r="F10">
-        <v>57.19190766522922</v>
+        <v>77.5465459712639</v>
       </c>
       <c r="G10">
-        <v>3.71409786129467</v>
+        <v>2.066727584051889</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.09674868346444</v>
+        <v>16.64696065948927</v>
       </c>
       <c r="L10">
-        <v>9.646468410151936</v>
+        <v>8.220957492789575</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.83348677055669</v>
+        <v>16.61949546067067</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.75736838639029</v>
+        <v>12.76039478120424</v>
       </c>
       <c r="E11">
-        <v>13.85645835809923</v>
+        <v>11.73121375327015</v>
       </c>
       <c r="F11">
-        <v>58.1157840179516</v>
+        <v>80.17981209709151</v>
       </c>
       <c r="G11">
-        <v>3.711310441889169</v>
+        <v>2.056539750564481</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.171695180417</v>
+        <v>17.33575572070478</v>
       </c>
       <c r="L11">
-        <v>9.657935217303198</v>
+        <v>8.539598370052397</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.85947457260501</v>
+        <v>16.80157754969047</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.79822553236517</v>
+        <v>12.88507104907545</v>
       </c>
       <c r="E12">
-        <v>13.87175506305641</v>
+        <v>11.79729304151629</v>
       </c>
       <c r="F12">
-        <v>58.46245042259623</v>
+        <v>81.16952032979884</v>
       </c>
       <c r="G12">
-        <v>3.710273198958681</v>
+        <v>2.052668609072746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.20100917687368</v>
+        <v>17.59447387108382</v>
       </c>
       <c r="L12">
-        <v>9.66268336148914</v>
+        <v>8.658924316849575</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.85384964853293</v>
+        <v>16.76237648139712</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.78944221803267</v>
+        <v>12.85823476400492</v>
       </c>
       <c r="E13">
-        <v>13.8684666798444</v>
+        <v>11.78302656550335</v>
       </c>
       <c r="F13">
-        <v>58.38793515524439</v>
+        <v>80.95668612977524</v>
       </c>
       <c r="G13">
-        <v>3.710495776291354</v>
+        <v>2.053503061821178</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.19465484181467</v>
+        <v>17.5388413364223</v>
       </c>
       <c r="L13">
-        <v>9.661642742625833</v>
+        <v>8.633282351906276</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.83561216679431</v>
+        <v>16.63448168587807</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.76073691659699</v>
+        <v>12.77065891437112</v>
       </c>
       <c r="E14">
-        <v>13.85771954816558</v>
+        <v>11.7366345994728</v>
       </c>
       <c r="F14">
-        <v>58.14436971115737</v>
+        <v>80.2613802829883</v>
       </c>
       <c r="G14">
-        <v>3.711224741426748</v>
+        <v>2.056221586231458</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.17408832292983</v>
+        <v>17.35708049601365</v>
       </c>
       <c r="L14">
-        <v>9.658317726284549</v>
+        <v>8.549441305846827</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.82452341950395</v>
+        <v>16.55610145691184</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.74310750216253</v>
+        <v>12.71697009022993</v>
       </c>
       <c r="E15">
-        <v>13.85111893342559</v>
+        <v>11.70831764986468</v>
       </c>
       <c r="F15">
-        <v>57.99475673139505</v>
+        <v>79.83454074110375</v>
       </c>
       <c r="G15">
-        <v>3.711673631969351</v>
+        <v>2.05788477235045</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.1616114192887</v>
+        <v>17.24548424684545</v>
       </c>
       <c r="L15">
-        <v>9.656333861156702</v>
+        <v>8.497916654309966</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.76225132938685</v>
+        <v>16.10626314376041</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.64137841935413</v>
+        <v>12.40850362602728</v>
       </c>
       <c r="E16">
-        <v>13.8130218459925</v>
+        <v>11.54742848363329</v>
       </c>
       <c r="F16">
-        <v>57.13109789555632</v>
+        <v>77.37336753379103</v>
       </c>
       <c r="G16">
-        <v>3.714282592513389</v>
+        <v>2.067392006920329</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.09198294369604</v>
+        <v>16.60162766030476</v>
       </c>
       <c r="L16">
-        <v>9.645775932479788</v>
+        <v>8.199938570683496</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72519872538503</v>
+        <v>15.82966691392503</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.57835777239147</v>
+        <v>12.21846815906154</v>
       </c>
       <c r="E17">
-        <v>13.78940753468287</v>
+        <v>11.44981984221965</v>
       </c>
       <c r="F17">
-        <v>56.59586486011492</v>
+        <v>75.84938250746087</v>
       </c>
       <c r="G17">
-        <v>3.71591582497939</v>
+        <v>2.073209983498937</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.05096122222448</v>
+        <v>16.20243728494067</v>
       </c>
       <c r="L17">
-        <v>9.640023941524413</v>
+        <v>8.014604499964008</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.70431457155871</v>
+        <v>15.67033473122348</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.54188998321849</v>
+        <v>12.10883846423166</v>
       </c>
       <c r="E18">
-        <v>13.77573567405141</v>
+        <v>11.39402611719313</v>
       </c>
       <c r="F18">
-        <v>56.2861093677222</v>
+        <v>74.96740809765222</v>
       </c>
       <c r="G18">
-        <v>3.716867283176587</v>
+        <v>2.076553595619314</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.02799761080893</v>
+        <v>15.97116482689261</v>
       </c>
       <c r="L18">
-        <v>9.636982492956518</v>
+        <v>7.907030887047512</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.69731745965104</v>
+        <v>15.61634589797887</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.52950534970461</v>
+        <v>12.07166099194555</v>
       </c>
       <c r="E19">
-        <v>13.77109121692666</v>
+        <v>11.37519041842806</v>
       </c>
       <c r="F19">
-        <v>56.18091264217935</v>
+        <v>74.66783735152427</v>
       </c>
       <c r="G19">
-        <v>3.717191506889332</v>
+        <v>2.07768544506278</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.02033170227461</v>
+        <v>15.89256227410834</v>
       </c>
       <c r="L19">
-        <v>9.635998603326312</v>
+        <v>7.870437098276484</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.72909890526634</v>
+        <v>15.85913594387926</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.58508931687792</v>
+        <v>12.23873087131521</v>
       </c>
       <c r="E20">
-        <v>13.79193057940802</v>
+        <v>11.46017327575403</v>
       </c>
       <c r="F20">
-        <v>56.65304026029528</v>
+        <v>76.01216950572288</v>
       </c>
       <c r="G20">
-        <v>3.715740716742397</v>
+        <v>2.072590988266372</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.05526294125705</v>
+        <v>16.24510181833184</v>
       </c>
       <c r="L20">
-        <v>9.640608633990057</v>
+        <v>8.03443353848351</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.84095184966656</v>
+        <v>16.67205589951961</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.76917809701033</v>
+        <v>12.79639143764533</v>
       </c>
       <c r="E21">
-        <v>13.86087992575255</v>
+        <v>11.75023996418324</v>
       </c>
       <c r="F21">
-        <v>58.21599918361758</v>
+        <v>80.46580367304411</v>
       </c>
       <c r="G21">
-        <v>3.711010131282395</v>
+        <v>2.055423520662312</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.18010411115319</v>
+        <v>17.41052196878656</v>
       </c>
       <c r="L21">
-        <v>9.659283363688928</v>
+        <v>8.574102518967345</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.9177490598935</v>
+        <v>17.2014823062376</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.88741983380607</v>
+        <v>13.15870135825126</v>
       </c>
       <c r="E22">
-        <v>13.90515007390252</v>
+        <v>11.94412008150943</v>
       </c>
       <c r="F22">
-        <v>59.21881040704257</v>
+        <v>83.3335889144321</v>
       </c>
       <c r="G22">
-        <v>3.708024981639128</v>
+        <v>2.044121663890938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.26712078446017</v>
+        <v>18.16010228424143</v>
       </c>
       <c r="L22">
-        <v>9.67385323955487</v>
+        <v>8.919097866605643</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.87642850772387</v>
+        <v>16.91906441519652</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.8245067693667</v>
+        <v>12.96548386420863</v>
       </c>
       <c r="E23">
-        <v>13.88159450876964</v>
+        <v>11.84018357860767</v>
       </c>
       <c r="F23">
-        <v>58.68537929737536</v>
+        <v>81.8066187901384</v>
       </c>
       <c r="G23">
-        <v>3.709608504641921</v>
+        <v>2.050164240392118</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.22019175540706</v>
+        <v>17.76099603936429</v>
       </c>
       <c r="L23">
-        <v>9.665861319436129</v>
+        <v>8.735621430479725</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.72733433111584</v>
+        <v>15.84581397323199</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.58204672062354</v>
+        <v>12.22957127699445</v>
       </c>
       <c r="E24">
-        <v>13.79079020896058</v>
+        <v>11.45549149544042</v>
       </c>
       <c r="F24">
-        <v>56.62719760540767</v>
+        <v>75.93859166920083</v>
       </c>
       <c r="G24">
-        <v>3.715819844259745</v>
+        <v>2.072870839211503</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.05331619984001</v>
+        <v>16.22581873294662</v>
       </c>
       <c r="L24">
-        <v>9.640343467592002</v>
+        <v>8.02547202539799</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.58291160200008</v>
+        <v>14.67917643143367</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.31217608426111</v>
+        <v>11.42311960921535</v>
       </c>
       <c r="E25">
-        <v>13.68941667310752</v>
+        <v>11.05340375153688</v>
       </c>
       <c r="F25">
-        <v>54.33553788071104</v>
+        <v>69.40076491765271</v>
       </c>
       <c r="G25">
-        <v>3.722981633796741</v>
+        <v>2.097282198753172</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.89752344161442</v>
+        <v>14.50495656749484</v>
       </c>
       <c r="L25">
-        <v>9.623026685037257</v>
+        <v>7.221816487005836</v>
       </c>
       <c r="M25">
         <v>0</v>
